--- a/datasets/users.xlsx
+++ b/datasets/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Coding\XAI\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73CCCBB-50A9-41C6-B9EB-00EA1ECC8788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BCBC10-DD7A-4302-8CA3-F821396BDFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{ED73D6BE-ADF2-4B0B-AD33-5957C429B7C9}"/>
+    <workbookView xWindow="420" yWindow="420" windowWidth="10093" windowHeight="10873" xr2:uid="{ED73D6BE-ADF2-4B0B-AD33-5957C429B7C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941E44A8-62CA-4130-B36D-7022E6B6B544}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -592,19 +592,19 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
